--- a/final_op.xlsx
+++ b/final_op.xlsx
@@ -434,283 +434,310 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Product Name</t>
+          <t>Price</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>Rating</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Rating</t>
+          <t>Source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vu 108 cm (43 inches) Full HD UltraAndroid LED TV 43GA (Black) (2019 Model)</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kodak 80 cm (32 Inches) HD Certified Android LED TV 32HDX7XPRO (Black) (2020 Model)</t>
+          <t>₹31,000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in//gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A00874243T7XFFQEMUJF5&amp;url=%2Finches-UltraAndroid-43GA-Black-Model%2Fdp%2FB07XMD275S%2Fref%3Dsr_1_1_sspa%3Fdchild%3D1%26keywords%3Dtv%26qid%3D1614421912%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1614421912&amp;id=8730506377701285&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TCL 108 cm (43 inches) 4K Ultra HD Certified Android Smart LED TV 43P615 (Black) (2020 Model)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>₹51,990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in//gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A08600191RWUE548RMFJ2&amp;url=%2FTCL-inches-Certified-Android-43P615%2Fdp%2FB08FD2VSD9%2Fref%3Dsr_1_2_sspa%3Fdchild%3D1%26keywords%3Dtv%26qid%3D1614421912%26sr%3D8-2-spons%26psc%3D1&amp;qualifier=1614421912&amp;id=8730506377701285&amp;widgetName=sp_atf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mi TV 4A PRO 80 cm (32 inches) HD Ready Android LED TV (Black) | With Data Saver</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.2 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in//Mi-inches-Ready-Android-Black/dp/B084872DQY/ref=sr_1_3?dchild=1&amp;keywords=tv&amp;qid=1614421912&amp;sr=8-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>OnePlus Y Series 80 cm (32 inches) HD Ready LED Smart Android TV 32Y1 (Black) (2020 Model)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>₹19,999</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.7 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in//OnePlus-inches-Ready-Android-32Y1/dp/B08B42LWKN/ref=sr_1_4?dchild=1&amp;keywords=tv&amp;qid=1614421912&amp;sr=8-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eAirtec 61 cm (24 inches) HD Ready LED TV 24DJ (Black) (2020 Model)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>₹8,499</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.9 out of 5 stars</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.in//eAirtec-inches-Ready-24DJ-Black/dp/B07MGQS2M8/ref=sr_1_5?dchild=1&amp;keywords=tv&amp;qid=1614421912&amp;sr=8-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Samsung The Frame 163 cm (65 inch) QLED Ultra HD (4K) Smart TV</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>₹1,29,999</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Flipkart</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/samsung-163-cm-65-inch-ultra-hd-4k-led-smart-tv/p/itm442ae5a2c7000?pid=TVSFH37DHP9GZVPM&amp;lid=LSTTVSFH37DHP9GZVPMW4DN3C&amp;marketplace=FLIPKART&amp;srno=s_1_2&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=en_EAo1f6w1QuhZMGffoZ14NotS6d%2BPJXcwh%2FjvJ3fFKXprqS%2BzXlIbCNvZ1vJDVDIQvkCDydc75eTseSg53L7LMg%3D%3D&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Samsung 163 cm (65 inch) Ultra HD (4K) LED Smart TV</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>₹99,999</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Flipkart</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/mi-4a-100-cm-40-inch-full-hd-led-smart-android-tv-google-data-saver/p/itmaaa9224388773?pid=TVSFJRFFJVY3HG5R&amp;lid=LSTTVSFJRFFJVY3HG5RFBHWCP&amp;marketplace=FLIPKART&amp;srno=s_1_3&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=ae405e44-e2ba-40cb-a2b2-b9b907a5a79b.TVSFJRFFJVY3HG5R.SEARCH&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mi 4A 100 cm (40 inch) Full HD LED Smart Android TV with With Google Data Saver</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>₹19,999</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Flipkart</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/samsung-80-cm-32-inch-hd-ready-led-smart-tv-2020/p/itma5db0294e13fe?pid=TVSFQXFKMHUDYCJ3&amp;lid=LSTTVSFQXFKMHUDYCJ3IOJXHJ&amp;marketplace=FLIPKART&amp;srno=s_1_4&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=ae405e44-e2ba-40cb-a2b2-b9b907a5a79b.TVSFQXFKMHUDYCJ3.SEARCH&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Samsung 80 cm (32 inch) HD Ready LED Smart TV 2020 Edition</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>₹16,290</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Flipkart</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/mi-4a-pro-80-cm-32-inch-hd-ready-led-smart-android-tv-google-data-saver/p/itmfdwh5jyqhmvzg?pid=TVSFDWH5K9N2FDTK&amp;lid=LSTTVSFDWH5K9N2FDTK9M2YF1&amp;marketplace=FLIPKART&amp;srno=s_1_5&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=ae405e44-e2ba-40cb-a2b2-b9b907a5a79b.TVSFDWH5K9N2FDTK.SEARCH&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mi 4A PRO 80 cm (32 inch) HD Ready LED Smart Android TV with Google Data Saver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>₹14,999</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Flipkart</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.flipkart.com/realme-80-cm-32-inch-hd-ready-led-smart-android-tv/p/itm56d1cf16da75b?pid=TVSFRTJQTZVKTF6Y&amp;lid=LSTTVSFRTJQTZVKTF6YTYQNP6&amp;marketplace=FLIPKART&amp;srno=s_1_6&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=ae405e44-e2ba-40cb-a2b2-b9b907a5a79b.TVSFRTJQTZVKTF6Y.SEARCH&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Realme 80 cm (32 inch) HD Ready LED Smart Android TV</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>₹13,999</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.4 out of 5 stars</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Vu 108 cm (43 inches) Full HD UltraAndroid LED TV 43GA (Black) (2019 Model)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>₹31,000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.2 out of 5 stars</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mi TV 4A PRO 80 cm (32 inches) HD Ready Android LED TV (Black) | With Data Saver</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.2 out of 5 stars</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OnePlus Y Series 80 cm (32 inches) HD Ready LED Smart Android TV 32Y1 (Black) (2020 Model)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>₹19,999</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.7 out of 5 stars</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Samsung 80 cm (32 Inches) Wondertainment Series HD Ready LED Smart TV UA32T4340AKXXL (Glossy Black) (2020 Model)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>₹19,900</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.2 out of 5 stars</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Amazon</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Samsung The Frame 163 cm (65 inch) QLED Ultra HD (4K) Smart TV</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>₹1,29,999</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Flipkart</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Samsung 163 cm (65 inch) Ultra HD (4K) LED Smart TV</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>₹99,999</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Flipkart</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mi 4A 100 cm (40 inch) Full HD LED Smart Android TV with With Google Data Saver</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>₹19,999</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Flipkart</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Samsung 80 cm (32 inch) HD Ready LED Smart TV 2020 Edition</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>₹16,290</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Flipkart</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mi 4A PRO 80 cm (32 inch) HD Ready LED Smart Android TV with Google Data Saver</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>₹14,999</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Flipkart</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Realme 80 cm (32 inch) HD Ready LED Smart Android TV</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>₹13,999</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4.3</v>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Flipkart</t>
+          <t>https://www.flipkart.com/lg-80-cm-32-inch-hd-ready-led-smart-tv-2020/p/itm6207e6d122567?pid=TVSFTW4CSRW8PGDQ&amp;lid=LSTTVSFTW4CSRW8PGDQSZQIO6&amp;marketplace=FLIPKART&amp;spotlightTagId=BestvalueId_ckf%2Fczl&amp;srno=s_1_7&amp;otracker=search&amp;otracker1=search&amp;fm=SEARCH&amp;iid=ae405e44-e2ba-40cb-a2b2-b9b907a5a79b.TVSFTW4CSRW8PGDQ.SEARCH&amp;ppt=hp&amp;ppn=homepage&amp;ssid=2nzyruyj400000001614421920742&amp;qH=c9a1fdac6e082dd8</t>
         </is>
       </c>
     </row>
